--- a/v3 (chatgpt extracts for us)/src/sympy_predict.xlsx
+++ b/v3 (chatgpt extracts for us)/src/sympy_predict.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="312">
   <si>
     <t>Overall Performance Chart</t>
   </si>
@@ -110,7 +110,7 @@
     <t>final_solved_different</t>
   </si>
   <si>
-    <t>num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_additions_and_subtractions_geq_1</t>
@@ -131,9 +131,6 @@
     <t>num_of_additions_and_subtractions_geq_5</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
-  </si>
-  <si>
     <t>num_of_additions_and_subtractions_geq_6</t>
   </si>
   <si>
@@ -143,318 +140,489 @@
     <t>num_of_additions_and_subtractions_geq_8</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_9</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_additions_and_subtractions_geq_10</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_11</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_12</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_additions_and_subtractions_geq_13</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_additions_and_subtractions_geq_14</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_15</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_16</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
   </si>
   <si>
     <t>num_of_additions_and_subtractions_geq_17</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_18</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_19</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
   </si>
   <si>
     <t>num_of_additions_and_subtractions_geq_20</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_21</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_divisions_and_multiplications_geq_1,num_of_divisions_geq_1,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_geq_1,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
   </si>
   <si>
     <t>num_of_additions_and_subtractions_geq_22</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_geq_1,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_23</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
   </si>
   <si>
     <t>num_of_additions_and_subtractions_geq_24</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_25</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_26</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_27</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_28</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_29</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_30</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_31</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_32</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_33</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_34</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_35</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_36</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_37</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_38</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_39</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_40</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_41</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_42</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_43</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_44</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_45</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_additions_and_subtractions_geq_46</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_1</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_and_multiplications_geq_2</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_and_multiplications_geq_3</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_and_multiplications_geq_4</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_5</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_6</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_and_multiplications_geq_7</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_8</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_9</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_10</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_11</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_12</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_and_multiplications_geq_13</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_14</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_15</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_16</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_and_multiplications_geq_17</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_equations_geq_5,num_of_parentheses_geq_1,num_of_parentheses_geq_2</t>
+    <t>final_solved_different,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_parentheses_geq_2</t>
   </si>
   <si>
     <t>num_of_multiplications_geq_1</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8</t>
   </si>
   <si>
     <t>num_of_multiplications_geq_2</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8</t>
+  </si>
+  <si>
     <t>num_of_multiplications_geq_3</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7</t>
   </si>
   <si>
     <t>num_of_multiplications_geq_4</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_equations_geq_5,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7</t>
   </si>
   <si>
     <t>num_of_multiplications_geq_5</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7</t>
+  </si>
+  <si>
     <t>num_of_multiplications_geq_6</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_equations_geq_5,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7</t>
   </si>
   <si>
     <t>num_of_multiplications_geq_7</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_equations_geq_5,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5</t>
   </si>
   <si>
     <t>num_of_multiplications_geq_8</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5</t>
+  </si>
+  <si>
     <t>num_of_multiplications_geq_9</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5</t>
+  </si>
+  <si>
     <t>num_of_divisions_geq_1</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_geq_2</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_geq_3</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_geq_4</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_geq_5</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_geq_6</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_geq_7</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_geq_8</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_geq_9</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_geq_10</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_geq_11</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_geq_12</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_geq_13</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_divisions_geq_14</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_geq_15</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_divisions_geq_16</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_1</t>
   </si>
   <si>
@@ -464,162 +632,249 @@
     <t>num_of_equations_geq_3</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_4</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_5</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_equations_geq_6</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_7</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_8</t>
   </si>
   <si>
     <t>num_of_equations_geq_9</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_10</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_equations_geq_11</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_12</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_equations_geq_13</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_equations_geq_14</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_15</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_16</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_parentheses_geq_1,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
   </si>
   <si>
     <t>num_of_equations_geq_17</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_18</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_19</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_20</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_21</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_22</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_23</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_24</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_25</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_26</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_equations_geq_27</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_1</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27</t>
-  </si>
-  <si>
     <t>num_of_parentheses_geq_2</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_and_multiplications_geq_17,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_3</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_parentheses_geq_4</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_5</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_multiplications_geq_7,num_of_multiplications_geq_8,num_of_multiplications_geq_9,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_6</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_parentheses_geq_7</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_multiplications_geq_3,num_of_multiplications_geq_4,num_of_multiplications_geq_5,num_of_multiplications_geq_6,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_8</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_multiplications_geq_1,num_of_multiplications_geq_2,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_parentheses_geq_9</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_parentheses_geq_10</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_11</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_12</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_additions_and_subtractions_geq_16,num_of_additions_and_subtractions_geq_17,num_of_additions_and_subtractions_geq_18,num_of_additions_and_subtractions_geq_19,num_of_additions_and_subtractions_geq_20,num_of_additions_and_subtractions_geq_21,num_of_additions_and_subtractions_geq_22,num_of_additions_and_subtractions_geq_23,num_of_additions_and_subtractions_geq_24,num_of_additions_and_subtractions_geq_25,num_of_additions_and_subtractions_geq_26,num_of_additions_and_subtractions_geq_27,num_of_additions_and_subtractions_geq_28,num_of_additions_and_subtractions_geq_29,num_of_additions_and_subtractions_geq_30,num_of_additions_and_subtractions_geq_31,num_of_additions_and_subtractions_geq_32,num_of_additions_and_subtractions_geq_33,num_of_additions_and_subtractions_geq_34,num_of_additions_and_subtractions_geq_35,num_of_additions_and_subtractions_geq_36,num_of_additions_and_subtractions_geq_37,num_of_additions_and_subtractions_geq_38,num_of_additions_and_subtractions_geq_39,num_of_additions_and_subtractions_geq_40,num_of_additions_and_subtractions_geq_41,num_of_additions_and_subtractions_geq_42,num_of_additions_and_subtractions_geq_43,num_of_additions_and_subtractions_geq_44,num_of_additions_and_subtractions_geq_45,num_of_additions_and_subtractions_geq_46,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_equations_geq_16,num_of_equations_geq_17,num_of_equations_geq_18,num_of_equations_geq_19,num_of_equations_geq_20,num_of_equations_geq_21,num_of_equations_geq_22,num_of_equations_geq_23,num_of_equations_geq_24,num_of_equations_geq_25,num_of_equations_geq_26,num_of_equations_geq_27,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_13</t>
   </si>
   <si>
-    <t>final_solved_different,num_of_additions_and_subtractions_geq_5,num_of_additions_and_subtractions_geq_7,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_5,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15</t>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
   </si>
   <si>
     <t>num_of_parentheses_geq_14</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_15,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_15</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_16,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_16</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_17</t>
+  </si>
+  <si>
     <t>num_of_parentheses_geq_17</t>
   </si>
   <si>
+    <t>final_solved_different,num_of_additions_and_subtractions_geq_8,num_of_additions_and_subtractions_geq_9,num_of_additions_and_subtractions_geq_10,num_of_additions_and_subtractions_geq_11,num_of_additions_and_subtractions_geq_12,num_of_additions_and_subtractions_geq_13,num_of_additions_and_subtractions_geq_14,num_of_additions_and_subtractions_geq_15,num_of_divisions_and_multiplications_geq_1,num_of_divisions_and_multiplications_geq_2,num_of_divisions_and_multiplications_geq_3,num_of_divisions_and_multiplications_geq_4,num_of_divisions_and_multiplications_geq_5,num_of_divisions_and_multiplications_geq_6,num_of_divisions_and_multiplications_geq_7,num_of_divisions_and_multiplications_geq_8,num_of_divisions_and_multiplications_geq_9,num_of_divisions_and_multiplications_geq_10,num_of_divisions_and_multiplications_geq_11,num_of_divisions_and_multiplications_geq_12,num_of_divisions_and_multiplications_geq_13,num_of_divisions_and_multiplications_geq_14,num_of_divisions_and_multiplications_geq_15,num_of_divisions_and_multiplications_geq_16,num_of_divisions_geq_1,num_of_divisions_geq_2,num_of_divisions_geq_3,num_of_divisions_geq_4,num_of_divisions_geq_5,num_of_divisions_geq_6,num_of_divisions_geq_7,num_of_divisions_geq_8,num_of_divisions_geq_9,num_of_divisions_geq_10,num_of_divisions_geq_11,num_of_divisions_geq_12,num_of_divisions_geq_13,num_of_divisions_geq_14,num_of_divisions_geq_15,num_of_divisions_geq_16,num_of_equations_geq_3,num_of_equations_geq_4,num_of_equations_geq_5,num_of_equations_geq_6,num_of_equations_geq_7,num_of_equations_geq_9,num_of_equations_geq_10,num_of_equations_geq_11,num_of_equations_geq_12,num_of_equations_geq_13,num_of_equations_geq_14,num_of_equations_geq_15,num_of_parentheses_geq_2,num_of_parentheses_geq_3,num_of_parentheses_geq_4,num_of_parentheses_geq_5,num_of_parentheses_geq_6,num_of_parentheses_geq_7,num_of_parentheses_geq_8,num_of_parentheses_geq_9,num_of_parentheses_geq_10,num_of_parentheses_geq_11,num_of_parentheses_geq_12,num_of_parentheses_geq_13,num_of_parentheses_geq_14,num_of_parentheses_geq_15,num_of_parentheses_geq_16</t>
+  </si>
+  <si>
     <t>Number of Additions And Subtractions Chart</t>
   </si>
   <si>
@@ -680,7 +935,7 @@
     <t>RandomForestClassifier</t>
   </si>
   <si>
-    <t>2023-04-14</t>
+    <t>2023-04-16</t>
   </si>
   <si>
     <t>ExtraTreesClassifier</t>
@@ -692,9 +947,6 @@
     <t>GradientBoostingClassifier</t>
   </si>
   <si>
-    <t>KNeighborsClassifier</t>
-  </si>
-  <si>
     <t>AdaBoostClassifier</t>
   </si>
   <si>
@@ -702,6 +954,9 @@
   </si>
   <si>
     <t>StackingClassifier</t>
+  </si>
+  <si>
+    <t>TF_Five_Layers</t>
   </si>
 </sst>
 </file>
@@ -879,13 +1134,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>235</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>686</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,55 +1361,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>0.2758974358974359</c:v>
+                  <c:v>0.3938461538461538</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2790697674418605</c:v>
+                  <c:v>0.3798449612403101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2787958115183246</c:v>
+                  <c:v>0.3664921465968586</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2781155015197568</c:v>
+                  <c:v>0.3525835866261398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2820976491862568</c:v>
+                  <c:v>0.3580470162748643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2746781115879828</c:v>
+                  <c:v>0.3562231759656652</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2947976878612717</c:v>
+                  <c:v>0.3757225433526011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3374485596707819</c:v>
+                  <c:v>0.411522633744856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3793103448275862</c:v>
+                  <c:v>0.4344827586206896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3861386138613861</c:v>
+                  <c:v>0.4653465346534654</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4428571428571428</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5294117647058824</c:v>
+                  <c:v>0.6666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6176470588235294</c:v>
+                  <c:v>0.7058823529411765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7037037037037037</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7333333333333333</c:v>
+                  <c:v>0.9333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.75</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.8333333333333334</c:v>
@@ -1427,52 +1682,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.4831460674157304</c:v>
+                  <c:v>0.7153558052434457</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4651162790697674</c:v>
+                  <c:v>0.7441860465116279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4759036144578313</c:v>
+                  <c:v>0.7469879518072289</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.481203007518797</c:v>
+                  <c:v>0.7368421052631579</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4554455445544555</c:v>
+                  <c:v>0.7425742574257426</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4805194805194805</c:v>
+                  <c:v>0.7662337662337663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4677419354838709</c:v>
+                  <c:v>0.7903225806451613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4901960784313725</c:v>
+                  <c:v>0.803921568627451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4736842105263158</c:v>
+                  <c:v>0.7894736842105263</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5161290322580645</c:v>
+                  <c:v>0.7741935483870968</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.7692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4444444444444444</c:v>
+                  <c:v>0.7222222222222222</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4285714285714285</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
@@ -1691,46 +1946,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0.2776659959758551</c:v>
+                  <c:v>0.4004024144869215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2772177419354839</c:v>
+                  <c:v>0.3991935483870968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2762605042016807</c:v>
+                  <c:v>0.4044117647058824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.277205040091638</c:v>
+                  <c:v>0.411225658648339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2903225806451613</c:v>
+                  <c:v>0.4179523141654979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27140549273021</c:v>
+                  <c:v>0.4054927302100161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2602739726027397</c:v>
+                  <c:v>0.4070450097847358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2474489795918367</c:v>
+                  <c:v>0.3877551020408163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.257936507936508</c:v>
+                  <c:v>0.4047619047619048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3228346456692913</c:v>
+                  <c:v>0.4409448818897638</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3650793650793651</c:v>
+                  <c:v>0.5079365079365079</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3611111111111111</c:v>
+                  <c:v>0.5555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3181818181818182</c:v>
+                  <c:v>0.5909090909090909</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4285714285714285</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.6666666666666666</c:v>
@@ -2087,19 +2342,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.2899159663865546</c:v>
+                  <c:v>0.3977591036414566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.367816091954023</c:v>
+                  <c:v>0.5344827586206896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4836601307189543</c:v>
+                  <c:v>0.6143790849673203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5222222222222223</c:v>
+                  <c:v>0.6222222222222222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4897959183673469</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.6071428571428571</c:v>
@@ -2108,7 +2363,7 @@
                   <c:v>0.6470588235294118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7692307692307693</c:v>
+                  <c:v>0.8461538461538461</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -2270,16 +2525,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5534469689336915</c:v>
+                  <c:v>0.8156604337170235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8974796146698523</c:v>
+                  <c:v>0.9114676706260637</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9471495086613666</c:v>
+                  <c:v>0.9369053750403442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7180961200279119</c:v>
+                  <c:v>0.865485017655889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,16 +2581,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5633736531342299</c:v>
+                  <c:v>0.8226766059010503</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9204704473665675</c:v>
+                  <c:v>0.9077639669223598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9581555956682347</c:v>
+                  <c:v>0.9352546592845797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.721710939286949</c:v>
+                  <c:v>0.8717322086671249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,16 +2637,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6039521818469187</c:v>
+                  <c:v>0.8295720788724715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5970370972373475</c:v>
+                  <c:v>0.8779019472023396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8435953069332701</c:v>
+                  <c:v>0.9151515596046835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8489340827960185</c:v>
+                  <c:v>0.8824318486968477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2438,16 +2693,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6025316299881475</c:v>
+                  <c:v>0.8253365708085992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5665809805546977</c:v>
+                  <c:v>0.844823965041005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8358385877351393</c:v>
+                  <c:v>0.8962392093371226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8556248406339568</c:v>
+                  <c:v>0.8843643794313711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,7 +2717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KNeighborsClassifier</c:v>
+                  <c:v>AdaBoostClassifier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2494,16 +2749,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.5568475013829983</c:v>
+                  <c:v>0.8221059298694436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2953877411699689</c:v>
+                  <c:v>0.9044852783977697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7670552753659292</c:v>
+                  <c:v>0.933244374104589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.907424549604535</c:v>
+                  <c:v>0.8717322086671249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,7 +2773,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AdaBoostClassifier</c:v>
+                  <c:v>MLPClassifier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2550,16 +2805,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6195371377134513</c:v>
+                  <c:v>0.8221059298694436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6250363549675189</c:v>
+                  <c:v>0.9044852783977697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8544874971322785</c:v>
+                  <c:v>0.933244374104589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8495932198012056</c:v>
+                  <c:v>0.8717322086671249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,7 +2829,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MLPClassifier</c:v>
+                  <c:v>StackingClassifier</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2606,16 +2861,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6195371377134513</c:v>
+                  <c:v>0.7999288116806177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6250363549675189</c:v>
+                  <c:v>0.8987968307721251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8544874971322785</c:v>
+                  <c:v>0.9274130565820163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8495932198012056</c:v>
+                  <c:v>0.8528055796463683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2630,7 +2885,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>StackingClassifier</c:v>
+                  <c:v>TF_Five_Layers</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2662,16 +2917,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6125074356653305</c:v>
+                  <c:v>0.8291930149986415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5515152327855707</c:v>
+                  <c:v>0.9039192898740348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8315798542152354</c:v>
+                  <c:v>0.9314753694229158</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8665232298334468</c:v>
+                  <c:v>0.8786386356676795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,7 +3563,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -3319,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>645</v>
+        <v>475</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -3341,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -3352,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>235</v>
+        <v>382</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>15</v>
@@ -3363,7 +3618,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>235</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3371,7 +3626,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>686</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3379,7 +3634,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3395,7 +3650,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>0.235</v>
+        <v>0.382</v>
       </c>
     </row>
   </sheetData>
@@ -3443,22 +3698,22 @@
         <v>28</v>
       </c>
       <c r="B3" s="2">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.5550755939524838</v>
+        <v>0.8314606741573034</v>
       </c>
       <c r="E3" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="2">
-        <v>0.7596855754558707</v>
+        <v>0.9100195595246099</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3472,10 +3727,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.2758974358974359</v>
+        <v>0.3938461538461538</v>
       </c>
       <c r="E4" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
@@ -3493,10 +3748,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>0.2790697674418605</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="E5" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -3514,10 +3769,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>0.2787958115183246</v>
+        <v>0.3664921465968586</v>
       </c>
       <c r="E6" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
@@ -3535,10 +3790,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>0.2781155015197568</v>
+        <v>0.3525835866261398</v>
       </c>
       <c r="E7" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
@@ -3556,21 +3811,19 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2820976491862568</v>
+        <v>0.3580470162748643</v>
       </c>
       <c r="E8" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.4035028930989922</v>
+        <v>0.404</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
         <v>466</v>
@@ -3579,10 +3832,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>0.2746781115879828</v>
+        <v>0.3562231759656652</v>
       </c>
       <c r="E9" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
@@ -3591,7 +3844,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2">
         <v>346</v>
@@ -3600,21 +3853,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>0.2947976878612717</v>
+        <v>0.3757225433526011</v>
       </c>
       <c r="E10" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.524248111217577</v>
+        <v>0.404</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>243</v>
@@ -3623,16 +3874,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>0.3374485596707819</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="E11" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2">
-        <v>0.517421275834732</v>
+        <v>0.5397730447236763</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3646,16 +3897,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>0.3793103448275862</v>
+        <v>0.4344827586206896</v>
       </c>
       <c r="E12" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="2">
-        <v>0.4691556070337196</v>
+        <v>0.5206508291872894</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3669,21 +3920,21 @@
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>0.3861386138613861</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="E13" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2">
-        <v>0.4307260905330152</v>
+        <v>0.519583827886125</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
         <v>70</v>
@@ -3692,21 +3943,21 @@
         <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>0.4428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E14" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2">
-        <v>0.4390913590673813</v>
+        <v>0.5376877904690666</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -3715,21 +3966,21 @@
         <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>0.5294117647058824</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E15" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2">
-        <v>0.499430756109296</v>
+        <v>0.5638051195226601</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="2">
         <v>34</v>
@@ -3738,21 +3989,21 @@
         <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>0.6176470588235294</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E16" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2">
-        <v>0.6018521653609239</v>
+        <v>0.5782010952914924</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>27</v>
@@ -3761,21 +4012,21 @@
         <v>15</v>
       </c>
       <c r="D17" s="2">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="E17" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G17" s="2">
-        <v>0.6285665968949466</v>
+        <v>0.5916173994409535</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
@@ -3784,21 +4035,21 @@
         <v>16</v>
       </c>
       <c r="D18" s="2">
-        <v>0.7333333333333333</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E18" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G18" s="2">
-        <v>0.59013060413267</v>
+        <v>0.5975420669309464</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2">
         <v>10</v>
@@ -3807,21 +4058,21 @@
         <v>17</v>
       </c>
       <c r="D19" s="2">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E19" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G19" s="2">
-        <v>0.529007106258973</v>
+        <v>0.6463816499503379</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2">
         <v>8</v>
@@ -3830,21 +4081,21 @@
         <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="E20" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G20" s="2">
-        <v>0.5487857176410909</v>
+        <v>0.6193676060281572</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2">
         <v>6</v>
@@ -3856,18 +4107,18 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E21" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2">
-        <v>0.5724570462827262</v>
+        <v>0.5979164900158512</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2">
         <v>5</v>
@@ -3879,18 +4130,18 @@
         <v>0.8</v>
       </c>
       <c r="E22" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G22" s="2">
-        <v>0.5754070315689855</v>
+        <v>0.6022328070352679</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
@@ -3902,18 +4153,18 @@
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2">
-        <v>0.6388611973983858</v>
+        <v>0.6768334573204988</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -3925,18 +4176,18 @@
         <v>1</v>
       </c>
       <c r="E24" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G24" s="2">
-        <v>0.6441147767805109</v>
+        <v>0.6692693077297457</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
@@ -3948,18 +4199,18 @@
         <v>1</v>
       </c>
       <c r="E25" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2">
-        <v>0.6441147767805109</v>
+        <v>0.6692693077297457</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -3971,18 +4222,18 @@
         <v>1</v>
       </c>
       <c r="E26" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G26" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -3994,18 +4245,18 @@
         <v>1</v>
       </c>
       <c r="E27" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G27" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -4017,18 +4268,18 @@
         <v>1</v>
       </c>
       <c r="E28" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G28" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -4040,18 +4291,18 @@
         <v>1</v>
       </c>
       <c r="E29" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G29" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
@@ -4063,18 +4314,18 @@
         <v>1</v>
       </c>
       <c r="E30" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G30" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
@@ -4086,18 +4337,18 @@
         <v>1</v>
       </c>
       <c r="E31" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G31" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -4109,18 +4360,18 @@
         <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G32" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -4132,18 +4383,18 @@
         <v>1</v>
       </c>
       <c r="E33" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G33" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -4155,18 +4406,18 @@
         <v>1</v>
       </c>
       <c r="E34" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G34" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -4178,18 +4429,18 @@
         <v>1</v>
       </c>
       <c r="E35" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G35" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
@@ -4201,18 +4452,18 @@
         <v>1</v>
       </c>
       <c r="E36" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="G36" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B37" s="2">
         <v>1</v>
@@ -4224,18 +4475,18 @@
         <v>1</v>
       </c>
       <c r="E37" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="G37" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -4247,18 +4498,18 @@
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G38" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -4270,18 +4521,18 @@
         <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="G39" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
@@ -4293,18 +4544,18 @@
         <v>1</v>
       </c>
       <c r="E40" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="G40" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B41" s="2">
         <v>1</v>
@@ -4316,18 +4567,18 @@
         <v>1</v>
       </c>
       <c r="E41" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="G41" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2">
         <v>1</v>
@@ -4339,18 +4590,18 @@
         <v>1</v>
       </c>
       <c r="E42" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="G42" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B43" s="2">
         <v>1</v>
@@ -4362,18 +4613,18 @@
         <v>1</v>
       </c>
       <c r="E43" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="G43" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
@@ -4385,18 +4636,18 @@
         <v>1</v>
       </c>
       <c r="E44" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="G44" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B45" s="2">
         <v>1</v>
@@ -4408,18 +4659,18 @@
         <v>1</v>
       </c>
       <c r="E45" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="G45" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -4431,18 +4682,18 @@
         <v>1</v>
       </c>
       <c r="E46" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="G46" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -4454,18 +4705,18 @@
         <v>1</v>
       </c>
       <c r="E47" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="G47" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B48" s="2">
         <v>1</v>
@@ -4477,18 +4728,18 @@
         <v>1</v>
       </c>
       <c r="E48" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="G48" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B49" s="2">
         <v>1</v>
@@ -4500,18 +4751,18 @@
         <v>1</v>
       </c>
       <c r="E49" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="G49" s="2">
-        <v>0.6491339100223683</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B50" s="2">
         <v>267</v>
@@ -4520,21 +4771,21 @@
         <v>48</v>
       </c>
       <c r="D50" s="2">
-        <v>0.4831460674157304</v>
+        <v>0.7153558052434457</v>
       </c>
       <c r="E50" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="G50" s="2">
-        <v>0.3656896378785777</v>
+        <v>0.5164549422956722</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B51" s="2">
         <v>215</v>
@@ -4543,21 +4794,21 @@
         <v>49</v>
       </c>
       <c r="D51" s="2">
-        <v>0.4651162790697674</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="E51" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="G51" s="2">
-        <v>0.3540892378653844</v>
+        <v>0.5141263648415856</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2">
         <v>166</v>
@@ -4566,21 +4817,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="2">
-        <v>0.4759036144578313</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="E52" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="G52" s="2">
-        <v>0.3597905463200251</v>
+        <v>0.4914563902274547</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B53" s="2">
         <v>133</v>
@@ -4589,21 +4840,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="2">
-        <v>0.481203007518797</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E53" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="G53" s="2">
-        <v>0.3476325572248958</v>
+        <v>0.4386208327887304</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B54" s="2">
         <v>101</v>
@@ -4612,21 +4863,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="2">
-        <v>0.4554455445544555</v>
+        <v>0.7425742574257426</v>
       </c>
       <c r="E54" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="G54" s="2">
-        <v>0.3260685033791045</v>
+        <v>0.4177440195399275</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B55" s="2">
         <v>77</v>
@@ -4635,21 +4886,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="2">
-        <v>0.4805194805194805</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="E55" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="G55" s="2">
-        <v>0.3294007006434105</v>
+        <v>0.4216883070711622</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B56" s="2">
         <v>62</v>
@@ -4658,21 +4909,21 @@
         <v>54</v>
       </c>
       <c r="D56" s="2">
-        <v>0.4677419354838709</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="E56" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="G56" s="2">
-        <v>0.3287285123553976</v>
+        <v>0.4155549193235258</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B57" s="2">
         <v>51</v>
@@ -4681,21 +4932,21 @@
         <v>55</v>
       </c>
       <c r="D57" s="2">
-        <v>0.4901960784313725</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="E57" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="G57" s="2">
-        <v>0.3254976804355715</v>
+        <v>0.3997029108822531</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="B58" s="2">
         <v>38</v>
@@ -4704,21 +4955,21 @@
         <v>56</v>
       </c>
       <c r="D58" s="2">
-        <v>0.4736842105263158</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E58" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="G58" s="2">
-        <v>0.3630392265241189</v>
+        <v>0.3599641475569376</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B59" s="2">
         <v>31</v>
@@ -4727,21 +4978,21 @@
         <v>57</v>
       </c>
       <c r="D59" s="2">
-        <v>0.5161290322580645</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E59" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="G59" s="2">
-        <v>0.3807431726882337</v>
+        <v>0.3313408731161358</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="B60" s="2">
         <v>26</v>
@@ -4750,21 +5001,21 @@
         <v>58</v>
       </c>
       <c r="D60" s="2">
-        <v>0.5</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E60" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="G60" s="2">
-        <v>0.3712544027377248</v>
+        <v>0.3114657464248392</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="B61" s="2">
         <v>18</v>
@@ -4773,21 +5024,21 @@
         <v>59</v>
       </c>
       <c r="D61" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="E61" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="G61" s="2">
-        <v>0.1951552590893737</v>
+        <v>0.1661414052634949</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="B62" s="2">
         <v>7</v>
@@ -4796,21 +5047,21 @@
         <v>60</v>
       </c>
       <c r="D62" s="2">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E62" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="G62" s="2">
-        <v>0.1725399428084924</v>
+        <v>0.07036294212621201</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B63" s="2">
         <v>5</v>
@@ -4819,21 +5070,21 @@
         <v>61</v>
       </c>
       <c r="D63" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E63" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="G63" s="2">
-        <v>0.1595638230692513</v>
+        <v>0.07514487250145317</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B64" s="2">
         <v>5</v>
@@ -4842,21 +5093,21 @@
         <v>62</v>
       </c>
       <c r="D64" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E64" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="G64" s="2">
-        <v>0.1595638230692513</v>
+        <v>0.07514487250145317</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B65" s="2">
         <v>4</v>
@@ -4865,21 +5116,21 @@
         <v>63</v>
       </c>
       <c r="D65" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E65" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="G65" s="2">
-        <v>0.2431694475767889</v>
+        <v>0.1961449185413495</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -4891,18 +5142,18 @@
         <v>1</v>
       </c>
       <c r="E66" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="G66" s="2">
-        <v>0.5411977366197906</v>
+        <v>0.2992426189885191</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B67" s="2">
         <v>75</v>
@@ -4911,21 +5162,21 @@
         <v>65</v>
       </c>
       <c r="D67" s="2">
-        <v>0.4533333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E67" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="G67" s="2">
-        <v>0.04247483068310168</v>
+        <v>0.1398659811652478</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="B68" s="2">
         <v>51</v>
@@ -4934,21 +5185,21 @@
         <v>66</v>
       </c>
       <c r="D68" s="2">
-        <v>0.4117647058823529</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="E68" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>-0.003698524853164632</v>
+        <v>0.1097806384071121</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="B69" s="2">
         <v>27</v>
@@ -4957,21 +5208,21 @@
         <v>67</v>
       </c>
       <c r="D69" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="E69" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="G69" s="2">
-        <v>0.110439848548699</v>
+        <v>0.04278379629240579</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B70" s="2">
         <v>11</v>
@@ -4980,21 +5231,21 @@
         <v>68</v>
       </c>
       <c r="D70" s="2">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E70" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="G70" s="2">
-        <v>0.1585441667155587</v>
+        <v>0.04641730195358498</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="B71" s="2">
         <v>5</v>
@@ -5006,18 +5257,18 @@
         <v>0.8</v>
       </c>
       <c r="E71" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="G71" s="2">
-        <v>0.2133896731040933</v>
+        <v>0.04795420235780232</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="B72" s="2">
         <v>2</v>
@@ -5029,18 +5280,18 @@
         <v>0.5</v>
       </c>
       <c r="E72" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="G72" s="2">
-        <v>-0.1300592895912055</v>
+        <v>-0.2805848630934262</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -5052,18 +5303,18 @@
         <v>1</v>
       </c>
       <c r="E73" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="G73" s="2">
-        <v>0.5636411406278491</v>
+        <v>0.398243589290446</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -5075,18 +5326,18 @@
         <v>1</v>
       </c>
       <c r="E74" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="G74" s="2">
-        <v>0.5636411406278491</v>
+        <v>0.398243589290446</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -5098,18 +5349,18 @@
         <v>1</v>
       </c>
       <c r="E75" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="G75" s="2">
-        <v>0.5636411406278491</v>
+        <v>0.398243589290446</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="B76" s="2">
         <v>232</v>
@@ -5118,21 +5369,21 @@
         <v>74</v>
       </c>
       <c r="D76" s="2">
-        <v>0.4870689655172414</v>
+        <v>0.7112068965517241</v>
       </c>
       <c r="E76" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="G76" s="2">
-        <v>0.2999568126483694</v>
+        <v>0.4139759313536305</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="B77" s="2">
         <v>183</v>
@@ -5141,21 +5392,21 @@
         <v>75</v>
       </c>
       <c r="D77" s="2">
-        <v>0.4754098360655737</v>
+        <v>0.7158469945355191</v>
       </c>
       <c r="E77" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="G77" s="2">
-        <v>0.3079325800831304</v>
+        <v>0.4151640815900764</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="B78" s="2">
         <v>140</v>
@@ -5164,21 +5415,21 @@
         <v>76</v>
       </c>
       <c r="D78" s="2">
-        <v>0.4857142857142857</v>
+        <v>0.7357142857142858</v>
       </c>
       <c r="E78" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="G78" s="2">
-        <v>0.1655557950343435</v>
+        <v>0.2985385807906235</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="B79" s="2">
         <v>112</v>
@@ -5187,21 +5438,21 @@
         <v>77</v>
       </c>
       <c r="D79" s="2">
-        <v>0.4821428571428572</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="E79" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="G79" s="2">
-        <v>0.1634765922479266</v>
+        <v>0.2715038082884336</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="B80" s="2">
         <v>87</v>
@@ -5210,21 +5461,21 @@
         <v>78</v>
       </c>
       <c r="D80" s="2">
-        <v>0.4597701149425287</v>
+        <v>0.7471264367816092</v>
       </c>
       <c r="E80" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="G80" s="2">
-        <v>0.1587018056478072</v>
+        <v>0.2697466897004147</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="B81" s="2">
         <v>66</v>
@@ -5233,21 +5484,21 @@
         <v>79</v>
       </c>
       <c r="D81" s="2">
-        <v>0.5</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="E81" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="G81" s="2">
-        <v>0.2056799035192977</v>
+        <v>0.3238320855859957</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="B82" s="2">
         <v>54</v>
@@ -5256,21 +5507,21 @@
         <v>80</v>
       </c>
       <c r="D82" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="E82" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="G82" s="2">
-        <v>0.2237128543395206</v>
+        <v>0.291411350129279</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="B83" s="2">
         <v>45</v>
@@ -5279,21 +5530,21 @@
         <v>81</v>
       </c>
       <c r="D83" s="2">
-        <v>0.4666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E83" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="G83" s="2">
-        <v>0.2292726511433538</v>
+        <v>0.2809046844337565</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="B84" s="2">
         <v>36</v>
@@ -5302,21 +5553,21 @@
         <v>82</v>
       </c>
       <c r="D84" s="2">
-        <v>0.4444444444444444</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="E84" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="G84" s="2">
-        <v>0.230946032988443</v>
+        <v>0.3077304340821968</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B85" s="2">
         <v>27</v>
@@ -5325,21 +5576,21 @@
         <v>83</v>
       </c>
       <c r="D85" s="2">
-        <v>0.4814814814814815</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E85" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="G85" s="2">
-        <v>0.2778294509052395</v>
+        <v>0.2679799160864618</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="B86" s="2">
         <v>22</v>
@@ -5348,21 +5599,21 @@
         <v>84</v>
       </c>
       <c r="D86" s="2">
-        <v>0.5</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="E86" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="G86" s="2">
-        <v>0.3992992826904367</v>
+        <v>0.3670386573393991</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="B87" s="2">
         <v>16</v>
@@ -5371,21 +5622,21 @@
         <v>85</v>
       </c>
       <c r="D87" s="2">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="E87" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="G87" s="2">
-        <v>0.3052148941731135</v>
+        <v>0.2596461502380299</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="B88" s="2">
         <v>5</v>
@@ -5394,21 +5645,21 @@
         <v>86</v>
       </c>
       <c r="D88" s="2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E88" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="G88" s="2">
-        <v>0.2132468328499295</v>
+        <v>0.1254506409054189</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="B89" s="2">
         <v>3</v>
@@ -5417,21 +5668,21 @@
         <v>87</v>
       </c>
       <c r="D89" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E89" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="G89" s="2">
-        <v>0.1981226791796798</v>
+        <v>0.1510765773663476</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="B90" s="2">
         <v>3</v>
@@ -5440,21 +5691,21 @@
         <v>88</v>
       </c>
       <c r="D90" s="2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E90" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="G90" s="2">
-        <v>0.1981226791796798</v>
+        <v>0.1510765773663476</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="B91" s="2">
         <v>2</v>
@@ -5463,21 +5714,21 @@
         <v>89</v>
       </c>
       <c r="D91" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E91" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="G91" s="2">
-        <v>0.3304119131390514</v>
+        <v>0.3872120781302061</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="B92" s="2">
         <v>994</v>
@@ -5486,10 +5737,10 @@
         <v>90</v>
       </c>
       <c r="D92" s="2">
-        <v>0.2776659959758551</v>
+        <v>0.4004024144869215</v>
       </c>
       <c r="E92" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
@@ -5498,7 +5749,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="B93" s="2">
         <v>992</v>
@@ -5507,10 +5758,10 @@
         <v>91</v>
       </c>
       <c r="D93" s="2">
-        <v>0.2772177419354839</v>
+        <v>0.3991935483870968</v>
       </c>
       <c r="E93" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2" t="s">
@@ -5519,7 +5770,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B94" s="2">
         <v>952</v>
@@ -5528,19 +5779,21 @@
         <v>92</v>
       </c>
       <c r="D94" s="2">
-        <v>0.2762605042016807</v>
+        <v>0.4044117647058824</v>
       </c>
       <c r="E94" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2" t="s">
-        <v>31</v>
+        <v>0.404</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0.7094415401874714</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B95" s="2">
         <v>873</v>
@@ -5549,19 +5802,21 @@
         <v>93</v>
       </c>
       <c r="D95" s="2">
-        <v>0.277205040091638</v>
+        <v>0.411225658648339</v>
       </c>
       <c r="E95" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2" t="s">
-        <v>31</v>
+        <v>0.404</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0.4288272965833636</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="B96" s="2">
         <v>713</v>
@@ -5570,21 +5825,21 @@
         <v>94</v>
       </c>
       <c r="D96" s="2">
-        <v>0.2903225806451613</v>
+        <v>0.4179523141654979</v>
       </c>
       <c r="E96" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="G96" s="2">
-        <v>0.4305977861357566</v>
+        <v>0.3904531002278975</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="B97" s="2">
         <v>619</v>
@@ -5593,19 +5848,21 @@
         <v>95</v>
       </c>
       <c r="D97" s="2">
-        <v>0.27140549273021</v>
+        <v>0.4054927302100161</v>
       </c>
       <c r="E97" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2" t="s">
-        <v>31</v>
+        <v>0.404</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.3628647447955084</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="B98" s="2">
         <v>511</v>
@@ -5614,19 +5871,21 @@
         <v>96</v>
       </c>
       <c r="D98" s="2">
-        <v>0.2602739726027397</v>
+        <v>0.4070450097847358</v>
       </c>
       <c r="E98" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2" t="s">
-        <v>31</v>
+        <v>0.404</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0.3724889730967982</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="B99" s="2">
         <v>392</v>
@@ -5635,10 +5894,10 @@
         <v>97</v>
       </c>
       <c r="D99" s="2">
-        <v>0.2474489795918367</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E99" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
@@ -5647,7 +5906,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="B100" s="2">
         <v>252</v>
@@ -5656,19 +5915,21 @@
         <v>98</v>
       </c>
       <c r="D100" s="2">
-        <v>0.257936507936508</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="E100" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2" t="s">
-        <v>31</v>
+        <v>0.404</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0.4059104587081247</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="B101" s="2">
         <v>127</v>
@@ -5677,21 +5938,21 @@
         <v>99</v>
       </c>
       <c r="D101" s="2">
-        <v>0.3228346456692913</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="E101" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="G101" s="2">
-        <v>0.3802889646739877</v>
+        <v>0.3731842334025092</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="B102" s="2">
         <v>63</v>
@@ -5700,21 +5961,21 @@
         <v>100</v>
       </c>
       <c r="D102" s="2">
-        <v>0.3650793650793651</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="E102" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="G102" s="2">
-        <v>0.3822047446310353</v>
+        <v>0.3572894018146273</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="B103" s="2">
         <v>36</v>
@@ -5723,21 +5984,21 @@
         <v>101</v>
       </c>
       <c r="D103" s="2">
-        <v>0.3611111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E103" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="G103" s="2">
-        <v>0.3265626809414193</v>
+        <v>0.3222271284713349</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="B104" s="2">
         <v>22</v>
@@ -5746,21 +6007,21 @@
         <v>102</v>
       </c>
       <c r="D104" s="2">
-        <v>0.3181818181818182</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="E104" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="G104" s="2">
-        <v>0.379024006549511</v>
+        <v>0.4070409627882934</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="B105" s="2">
         <v>14</v>
@@ -5769,21 +6030,21 @@
         <v>103</v>
       </c>
       <c r="D105" s="2">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E105" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="G105" s="2">
-        <v>0.4307107503618011</v>
+        <v>0.4152502351344221</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="B106" s="2">
         <v>6</v>
@@ -5795,18 +6056,18 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E106" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="G106" s="2">
-        <v>0.5637239575065046</v>
+        <v>0.4716631253258412</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
@@ -5818,18 +6079,18 @@
         <v>1</v>
       </c>
       <c r="E107" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="G107" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
@@ -5841,18 +6102,18 @@
         <v>1</v>
       </c>
       <c r="E108" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="G108" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
@@ -5864,18 +6125,18 @@
         <v>1</v>
       </c>
       <c r="E109" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="G109" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -5887,18 +6148,18 @@
         <v>1</v>
       </c>
       <c r="E110" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="G110" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
@@ -5910,18 +6171,18 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="G111" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>
@@ -5933,18 +6194,18 @@
         <v>1</v>
       </c>
       <c r="E112" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="G112" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
@@ -5956,18 +6217,18 @@
         <v>1</v>
       </c>
       <c r="E113" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="G113" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
@@ -5979,18 +6240,18 @@
         <v>1</v>
       </c>
       <c r="E114" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="G114" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="B115" s="2">
         <v>1</v>
@@ -6002,18 +6263,18 @@
         <v>1</v>
       </c>
       <c r="E115" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="G115" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
@@ -6025,18 +6286,18 @@
         <v>1</v>
       </c>
       <c r="E116" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="G116" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
@@ -6048,18 +6309,18 @@
         <v>1</v>
       </c>
       <c r="E117" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>164</v>
+        <v>248</v>
       </c>
       <c r="G117" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="B118" s="2">
         <v>1</v>
@@ -6071,18 +6332,18 @@
         <v>1</v>
       </c>
       <c r="E118" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>164</v>
+        <v>250</v>
       </c>
       <c r="G118" s="2">
-        <v>0.6441749320925106</v>
+        <v>0.6484026579332051</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="B119" s="2">
         <v>714</v>
@@ -6091,21 +6352,19 @@
         <v>117</v>
       </c>
       <c r="D119" s="2">
-        <v>0.2899159663865546</v>
+        <v>0.3977591036414566</v>
       </c>
       <c r="E119" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G119" s="2">
-        <v>0.6001006401578286</v>
+        <v>0.404</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="B120" s="2">
         <v>348</v>
@@ -6114,21 +6373,21 @@
         <v>118</v>
       </c>
       <c r="D120" s="2">
-        <v>0.367816091954023</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="E120" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="G120" s="2">
-        <v>0.6068001821313543</v>
+        <v>0.5033683619849105</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="B121" s="2">
         <v>153</v>
@@ -6137,21 +6396,21 @@
         <v>119</v>
       </c>
       <c r="D121" s="2">
-        <v>0.4836601307189543</v>
+        <v>0.6143790849673203</v>
       </c>
       <c r="E121" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="G121" s="2">
-        <v>0.5539387028289373</v>
+        <v>0.4550984426691935</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="B122" s="2">
         <v>90</v>
@@ -6160,21 +6419,21 @@
         <v>120</v>
       </c>
       <c r="D122" s="2">
-        <v>0.5222222222222223</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="E122" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c r="G122" s="2">
-        <v>0.5446593503643715</v>
+        <v>0.4665832191275256</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="B123" s="2">
         <v>49</v>
@@ -6183,21 +6442,21 @@
         <v>121</v>
       </c>
       <c r="D123" s="2">
-        <v>0.4897959183673469</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E123" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="G123" s="2">
-        <v>0.5362519557955344</v>
+        <v>0.4349003994800806</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="2" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="B124" s="2">
         <v>28</v>
@@ -6209,18 +6468,18 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="E124" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="G124" s="2">
-        <v>0.5267860183554592</v>
+        <v>0.3966448801949329</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B125" s="2">
         <v>17</v>
@@ -6232,18 +6491,18 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="E125" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="G125" s="2">
-        <v>0.5124388893690478</v>
+        <v>0.406750414347079</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="2" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="B126" s="2">
         <v>13</v>
@@ -6252,21 +6511,21 @@
         <v>124</v>
       </c>
       <c r="D126" s="2">
-        <v>0.7692307692307693</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E126" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="G126" s="2">
-        <v>0.6596948364315158</v>
+        <v>0.5904530638159846</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="B127" s="2">
         <v>6</v>
@@ -6278,18 +6537,18 @@
         <v>1</v>
       </c>
       <c r="E127" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="G127" s="2">
-        <v>0.753536391249194</v>
+        <v>0.62621291634608</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="2" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="B128" s="2">
         <v>6</v>
@@ -6301,18 +6560,18 @@
         <v>1</v>
       </c>
       <c r="E128" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="G128" s="2">
-        <v>0.753536391249194</v>
+        <v>0.62621291634608</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="2" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="B129" s="2">
         <v>4</v>
@@ -6324,18 +6583,18 @@
         <v>1</v>
       </c>
       <c r="E129" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="G129" s="2">
-        <v>0.7248476221819086</v>
+        <v>0.5839491755927838</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="2" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B130" s="2">
         <v>4</v>
@@ -6347,18 +6606,18 @@
         <v>1</v>
       </c>
       <c r="E130" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="G130" s="2">
-        <v>0.7248476221819086</v>
+        <v>0.5839491755927838</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="B131" s="2">
         <v>2</v>
@@ -6370,18 +6629,18 @@
         <v>1</v>
       </c>
       <c r="E131" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="G131" s="2">
-        <v>0.6001848734424904</v>
+        <v>0.3776080109668248</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="2" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="B132" s="2">
         <v>2</v>
@@ -6393,18 +6652,18 @@
         <v>1</v>
       </c>
       <c r="E132" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="G132" s="2">
-        <v>0.6001848734424904</v>
+        <v>0.3776080109668248</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="B133" s="2">
         <v>1</v>
@@ -6416,18 +6675,18 @@
         <v>1</v>
       </c>
       <c r="E133" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="G133" s="2">
-        <v>0.5939698886882206</v>
+        <v>0.3446358821432734</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="B134" s="2">
         <v>1</v>
@@ -6439,18 +6698,18 @@
         <v>1</v>
       </c>
       <c r="E134" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="G134" s="2">
-        <v>0.5939698886882206</v>
+        <v>0.3446358821432734</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="2" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="B135" s="2">
         <v>1</v>
@@ -6462,13 +6721,13 @@
         <v>1</v>
       </c>
       <c r="E135" s="2">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>194</v>
+        <v>283</v>
       </c>
       <c r="G135" s="2">
-        <v>0.5939698886882206</v>
+        <v>0.3446358821432734</v>
       </c>
     </row>
   </sheetData>
@@ -6489,7 +6748,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -6512,25 +6771,25 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6544,13 +6803,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2758974358974359</v>
+        <v>0.3938461538461538</v>
       </c>
       <c r="E4" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F4" s="2">
-        <v>-0.004102564102564155</v>
+        <v>-0.01015384615384618</v>
       </c>
       <c r="G4" s="2">
         <f>1/(POWER(B4,1.5))</f>
@@ -6587,13 +6846,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2790697674418605</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="E5" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.0009302325581395654</v>
+        <v>-0.02415503875968994</v>
       </c>
       <c r="G5" s="2">
         <f>1/(POWER(B5,1.5))</f>
@@ -6630,13 +6889,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2787958115183246</v>
+        <v>0.3664921465968586</v>
       </c>
       <c r="E6" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F6" s="2">
-        <v>-0.001204188481675417</v>
+        <v>-0.03750785340314139</v>
       </c>
       <c r="G6" s="2">
         <f>1/(POWER(B6,1.5))</f>
@@ -6673,13 +6932,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2781155015197568</v>
+        <v>0.3525835866261398</v>
       </c>
       <c r="E7" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F7" s="2">
-        <v>-0.001884498480243191</v>
+        <v>-0.05141641337386021</v>
       </c>
       <c r="G7" s="2">
         <f>1/(POWER(B7,1.5))</f>
@@ -6716,13 +6975,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.2820976491862568</v>
+        <v>0.3580470162748643</v>
       </c>
       <c r="E8" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F8" s="2">
-        <v>0.002097649186256767</v>
+        <v>-0.04595298372513568</v>
       </c>
       <c r="G8" s="2">
         <f>1/(POWER(B8,1.5))</f>
@@ -6750,7 +7009,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3">
         <v>466</v>
@@ -6759,13 +7018,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2746781115879828</v>
+        <v>0.3562231759656652</v>
       </c>
       <c r="E9" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F9" s="2">
-        <v>-0.005321888412017195</v>
+        <v>-0.04777682403433481</v>
       </c>
       <c r="G9" s="2">
         <f>1/(POWER(B9,1.5))</f>
@@ -6793,7 +7052,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3">
         <v>346</v>
@@ -6802,13 +7061,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2947976878612717</v>
+        <v>0.3757225433526011</v>
       </c>
       <c r="E10" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F10" s="2">
-        <v>0.01479768786127167</v>
+        <v>-0.02827745664739889</v>
       </c>
       <c r="G10" s="2">
         <f>1/(POWER(B10,1.5))</f>
@@ -6836,7 +7095,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3">
         <v>243</v>
@@ -6845,13 +7104,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.3374485596707819</v>
+        <v>0.411522633744856</v>
       </c>
       <c r="E11" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F11" s="2">
-        <v>0.05744855967078188</v>
+        <v>0.007522633744855955</v>
       </c>
       <c r="G11" s="2">
         <f>1/(POWER(B11,1.5))</f>
@@ -6888,13 +7147,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.3793103448275862</v>
+        <v>0.4344827586206896</v>
       </c>
       <c r="E12" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F12" s="2">
-        <v>0.09931034482758616</v>
+        <v>0.03048275862068961</v>
       </c>
       <c r="G12" s="2">
         <f>1/(POWER(B12,1.5))</f>
@@ -6931,13 +7190,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.3861386138613861</v>
+        <v>0.4653465346534654</v>
       </c>
       <c r="E13" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F13" s="2">
-        <v>0.1061386138613861</v>
+        <v>0.06134653465346535</v>
       </c>
       <c r="G13" s="2">
         <f>1/(POWER(B13,1.5))</f>
@@ -6965,7 +7224,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3">
         <v>70</v>
@@ -6974,13 +7233,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.4428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E14" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F14" s="2">
-        <v>0.1628571428571428</v>
+        <v>0.1674285714285714</v>
       </c>
       <c r="G14" s="2">
         <f>1/(POWER(B14,1.5))</f>
@@ -7008,7 +7267,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3">
         <v>51</v>
@@ -7017,13 +7276,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.5294117647058824</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E15" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F15" s="2">
-        <v>0.2494117647058823</v>
+        <v>0.2626666666666666</v>
       </c>
       <c r="G15" s="2">
         <f>1/(POWER(B15,1.5))</f>
@@ -7051,7 +7310,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3">
         <v>34</v>
@@ -7060,13 +7319,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.6176470588235294</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E16" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F16" s="2">
-        <v>0.3376470588235294</v>
+        <v>0.3018823529411765</v>
       </c>
       <c r="G16" s="2">
         <f>1/(POWER(B16,1.5))</f>
@@ -7094,7 +7353,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3">
         <v>27</v>
@@ -7103,13 +7362,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="E17" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F17" s="2">
-        <v>0.4237037037037037</v>
+        <v>0.3367407407407407</v>
       </c>
       <c r="G17" s="2">
         <f>1/(POWER(B17,1.5))</f>
@@ -7137,7 +7396,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B18" s="3">
         <v>15</v>
@@ -7146,13 +7405,13 @@
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.7333333333333333</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E18" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F18" s="2">
-        <v>0.4533333333333333</v>
+        <v>0.5293333333333333</v>
       </c>
       <c r="G18" s="2">
         <f>1/(POWER(B18,1.5))</f>
@@ -7180,7 +7439,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3">
         <v>10</v>
@@ -7189,13 +7448,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E19" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F19" s="2">
-        <v>0.4199999999999999</v>
+        <v>0.496</v>
       </c>
       <c r="G19" s="2">
         <f>1/(POWER(B19,1.5))</f>
@@ -7223,7 +7482,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3">
         <v>8</v>
@@ -7232,13 +7491,13 @@
         <v>17</v>
       </c>
       <c r="D20" s="3">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="E20" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F20" s="2">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="G20" s="2">
         <f>1/(POWER(B20,1.5))</f>
@@ -7266,7 +7525,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3">
         <v>6</v>
@@ -7278,10 +7537,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="E21" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F21" s="2">
-        <v>0.5533333333333333</v>
+        <v>0.4293333333333333</v>
       </c>
       <c r="G21" s="2">
         <f>1/(POWER(B21,1.5))</f>
@@ -7309,7 +7568,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B22" s="3">
         <v>5</v>
@@ -7321,10 +7580,10 @@
         <v>0.8</v>
       </c>
       <c r="E22" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F22" s="2">
-        <v>0.52</v>
+        <v>0.396</v>
       </c>
       <c r="G22" s="2">
         <f>1/(POWER(B22,1.5))</f>
@@ -7352,7 +7611,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B23" s="3">
         <v>3</v>
@@ -7364,10 +7623,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F23" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G23" s="2">
         <f>1/(POWER(B23,1.5))</f>
@@ -7395,7 +7654,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -7407,10 +7666,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F24" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G24" s="2">
         <f>1/(POWER(B24,1.5))</f>
@@ -7438,7 +7697,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -7450,10 +7709,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F25" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G25" s="2">
         <f>1/(POWER(B25,1.5))</f>
@@ -7481,7 +7740,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -7493,10 +7752,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F26" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G26" s="2">
         <f>1/(POWER(B26,1.5))</f>
@@ -7524,7 +7783,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -7536,10 +7795,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F27" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G27" s="2">
         <f>1/(POWER(B27,1.5))</f>
@@ -7567,7 +7826,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -7579,10 +7838,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F28" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G28" s="2">
         <f>1/(POWER(B28,1.5))</f>
@@ -7610,7 +7869,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -7622,10 +7881,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F29" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G29" s="2">
         <f>1/(POWER(B29,1.5))</f>
@@ -7653,7 +7912,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -7665,10 +7924,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F30" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G30" s="2">
         <f>1/(POWER(B30,1.5))</f>
@@ -7696,7 +7955,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -7708,10 +7967,10 @@
         <v>1</v>
       </c>
       <c r="E31" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F31" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G31" s="2">
         <f>1/(POWER(B31,1.5))</f>
@@ -7739,7 +7998,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -7751,10 +8010,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F32" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G32" s="2">
         <f>1/(POWER(B32,1.5))</f>
@@ -7782,7 +8041,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -7794,10 +8053,10 @@
         <v>1</v>
       </c>
       <c r="E33" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F33" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G33" s="2">
         <f>1/(POWER(B33,1.5))</f>
@@ -7825,7 +8084,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
@@ -7837,10 +8096,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F34" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G34" s="2">
         <f>1/(POWER(B34,1.5))</f>
@@ -7868,7 +8127,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -7880,10 +8139,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F35" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G35" s="2">
         <f>1/(POWER(B35,1.5))</f>
@@ -7911,7 +8170,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -7923,10 +8182,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F36" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G36" s="2">
         <f>1/(POWER(B36,1.5))</f>
@@ -7954,7 +8213,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
@@ -7966,10 +8225,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F37" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G37" s="2">
         <f>1/(POWER(B37,1.5))</f>
@@ -7997,7 +8256,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="3" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
@@ -8009,10 +8268,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F38" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G38" s="2">
         <f>1/(POWER(B38,1.5))</f>
@@ -8040,7 +8299,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -8052,10 +8311,10 @@
         <v>1</v>
       </c>
       <c r="E39" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F39" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G39" s="2">
         <f>1/(POWER(B39,1.5))</f>
@@ -8083,7 +8342,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
@@ -8095,10 +8354,10 @@
         <v>1</v>
       </c>
       <c r="E40" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F40" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G40" s="2">
         <f>1/(POWER(B40,1.5))</f>
@@ -8126,7 +8385,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -8138,10 +8397,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F41" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G41" s="2">
         <f>1/(POWER(B41,1.5))</f>
@@ -8169,7 +8428,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="3" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -8181,10 +8440,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F42" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G42" s="2">
         <f>1/(POWER(B42,1.5))</f>
@@ -8212,7 +8471,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="3" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -8224,10 +8483,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F43" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G43" s="2">
         <f>1/(POWER(B43,1.5))</f>
@@ -8255,7 +8514,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="3" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -8267,10 +8526,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F44" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G44" s="2">
         <f>1/(POWER(B44,1.5))</f>
@@ -8298,7 +8557,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -8310,10 +8569,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F45" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G45" s="2">
         <f>1/(POWER(B45,1.5))</f>
@@ -8341,7 +8600,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
@@ -8353,10 +8612,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F46" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G46" s="2">
         <f>1/(POWER(B46,1.5))</f>
@@ -8384,7 +8643,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="3" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
@@ -8396,10 +8655,10 @@
         <v>1</v>
       </c>
       <c r="E47" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F47" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G47" s="2">
         <f>1/(POWER(B47,1.5))</f>
@@ -8427,7 +8686,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -8439,10 +8698,10 @@
         <v>1</v>
       </c>
       <c r="E48" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F48" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G48" s="2">
         <f>1/(POWER(B48,1.5))</f>
@@ -8470,7 +8729,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="3" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -8482,10 +8741,10 @@
         <v>1</v>
       </c>
       <c r="E49" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F49" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G49" s="2">
         <f>1/(POWER(B49,1.5))</f>
@@ -8530,7 +8789,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -8553,30 +8812,30 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3">
         <v>267</v>
@@ -8585,13 +8844,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.4831460674157304</v>
+        <v>0.7153558052434457</v>
       </c>
       <c r="E4" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F4" s="2">
-        <v>0.2031460674157303</v>
+        <v>0.3113558052434456</v>
       </c>
       <c r="G4" s="2">
         <f>1/(POWER(B4,1.5))</f>
@@ -8619,7 +8878,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3">
         <v>215</v>
@@ -8628,13 +8887,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.4651162790697674</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="E5" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F5" s="2">
-        <v>0.1851162790697674</v>
+        <v>0.3401860465116279</v>
       </c>
       <c r="G5" s="2">
         <f>1/(POWER(B5,1.5))</f>
@@ -8662,7 +8921,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B6" s="3">
         <v>166</v>
@@ -8671,13 +8930,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.4759036144578313</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="E6" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F6" s="2">
-        <v>0.1959036144578313</v>
+        <v>0.3429879518072289</v>
       </c>
       <c r="G6" s="2">
         <f>1/(POWER(B6,1.5))</f>
@@ -8705,7 +8964,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3">
         <v>133</v>
@@ -8714,13 +8973,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.481203007518797</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="E7" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F7" s="2">
-        <v>0.2012030075187969</v>
+        <v>0.3328421052631578</v>
       </c>
       <c r="G7" s="2">
         <f>1/(POWER(B7,1.5))</f>
@@ -8748,7 +9007,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3">
         <v>101</v>
@@ -8757,13 +9016,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.4554455445544555</v>
+        <v>0.7425742574257426</v>
       </c>
       <c r="E8" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F8" s="2">
-        <v>0.1754455445544554</v>
+        <v>0.3385742574257425</v>
       </c>
       <c r="G8" s="2">
         <f>1/(POWER(B8,1.5))</f>
@@ -8791,7 +9050,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B9" s="3">
         <v>77</v>
@@ -8800,13 +9059,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.4805194805194805</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="E9" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F9" s="2">
-        <v>0.2005194805194805</v>
+        <v>0.3622337662337662</v>
       </c>
       <c r="G9" s="2">
         <f>1/(POWER(B9,1.5))</f>
@@ -8834,7 +9093,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B10" s="3">
         <v>62</v>
@@ -8843,13 +9102,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.4677419354838709</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="E10" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F10" s="2">
-        <v>0.1877419354838709</v>
+        <v>0.3863225806451612</v>
       </c>
       <c r="G10" s="2">
         <f>1/(POWER(B10,1.5))</f>
@@ -8877,7 +9136,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B11" s="3">
         <v>51</v>
@@ -8886,13 +9145,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.4901960784313725</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="E11" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F11" s="2">
-        <v>0.2101960784313725</v>
+        <v>0.399921568627451</v>
       </c>
       <c r="G11" s="2">
         <f>1/(POWER(B11,1.5))</f>
@@ -8920,7 +9179,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="B12" s="3">
         <v>38</v>
@@ -8929,13 +9188,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.4736842105263158</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="E12" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F12" s="2">
-        <v>0.1936842105263157</v>
+        <v>0.3854736842105263</v>
       </c>
       <c r="G12" s="2">
         <f>1/(POWER(B12,1.5))</f>
@@ -8963,7 +9222,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B13" s="3">
         <v>31</v>
@@ -8972,13 +9231,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.5161290322580645</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="E13" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F13" s="2">
-        <v>0.2361290322580645</v>
+        <v>0.3701935483870967</v>
       </c>
       <c r="G13" s="2">
         <f>1/(POWER(B13,1.5))</f>
@@ -9006,7 +9265,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3">
         <v>26</v>
@@ -9015,13 +9274,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.5</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E14" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F14" s="2">
-        <v>0.22</v>
+        <v>0.3652307692307692</v>
       </c>
       <c r="G14" s="2">
         <f>1/(POWER(B14,1.5))</f>
@@ -9049,7 +9308,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="B15" s="3">
         <v>18</v>
@@ -9058,13 +9317,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.4444444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="E15" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F15" s="2">
-        <v>0.1644444444444444</v>
+        <v>0.3182222222222222</v>
       </c>
       <c r="G15" s="2">
         <f>1/(POWER(B15,1.5))</f>
@@ -9092,7 +9351,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3">
         <v>7</v>
@@ -9101,13 +9360,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E16" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F16" s="2">
-        <v>0.1485714285714285</v>
+        <v>0.1674285714285714</v>
       </c>
       <c r="G16" s="2">
         <f>1/(POWER(B16,1.5))</f>
@@ -9135,7 +9394,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B17" s="3">
         <v>5</v>
@@ -9144,13 +9403,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E17" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F17" s="2">
-        <v>0.12</v>
+        <v>0.196</v>
       </c>
       <c r="G17" s="2">
         <f>1/(POWER(B17,1.5))</f>
@@ -9178,7 +9437,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B18" s="3">
         <v>5</v>
@@ -9187,13 +9446,13 @@
         <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="E18" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F18" s="2">
-        <v>0.12</v>
+        <v>0.196</v>
       </c>
       <c r="G18" s="2">
         <f>1/(POWER(B18,1.5))</f>
@@ -9221,7 +9480,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B19" s="3">
         <v>4</v>
@@ -9230,13 +9489,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E19" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F19" s="2">
-        <v>0.22</v>
+        <v>0.346</v>
       </c>
       <c r="G19" s="2">
         <f>1/(POWER(B19,1.5))</f>
@@ -9264,7 +9523,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -9276,10 +9535,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F20" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G20" s="2">
         <f>1/(POWER(B20,1.5))</f>
@@ -9324,7 +9583,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -9347,30 +9606,30 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3">
         <v>994</v>
@@ -9379,13 +9638,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2776659959758551</v>
+        <v>0.4004024144869215</v>
       </c>
       <c r="E4" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F4" s="2">
-        <v>-0.002334004024144909</v>
+        <v>-0.003597585513078483</v>
       </c>
       <c r="G4" s="2">
         <f>1/(POWER(B4,1.5))</f>
@@ -9413,7 +9672,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="B5" s="3">
         <v>992</v>
@@ -9422,13 +9681,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2772177419354839</v>
+        <v>0.3991935483870968</v>
       </c>
       <c r="E5" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.002782258064516152</v>
+        <v>-0.004806451612903273</v>
       </c>
       <c r="G5" s="2">
         <f>1/(POWER(B5,1.5))</f>
@@ -9456,7 +9715,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B6" s="3">
         <v>952</v>
@@ -9465,13 +9724,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2762605042016807</v>
+        <v>0.4044117647058824</v>
       </c>
       <c r="E6" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F6" s="2">
-        <v>-0.003739495798319337</v>
+        <v>0.0004117647058823337</v>
       </c>
       <c r="G6" s="2">
         <f>1/(POWER(B6,1.5))</f>
@@ -9499,7 +9758,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="B7" s="3">
         <v>873</v>
@@ -9508,13 +9767,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.277205040091638</v>
+        <v>0.411225658648339</v>
       </c>
       <c r="E7" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F7" s="2">
-        <v>-0.002794959908361982</v>
+        <v>0.007225658648339017</v>
       </c>
       <c r="G7" s="2">
         <f>1/(POWER(B7,1.5))</f>
@@ -9542,7 +9801,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="B8" s="3">
         <v>713</v>
@@ -9551,13 +9810,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.2903225806451613</v>
+        <v>0.4179523141654979</v>
       </c>
       <c r="E8" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F8" s="2">
-        <v>0.01032258064516128</v>
+        <v>0.01395231416549786</v>
       </c>
       <c r="G8" s="2">
         <f>1/(POWER(B8,1.5))</f>
@@ -9585,7 +9844,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="B9" s="3">
         <v>619</v>
@@ -9594,13 +9853,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.27140549273021</v>
+        <v>0.4054927302100161</v>
       </c>
       <c r="E9" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F9" s="2">
-        <v>-0.008594507269789997</v>
+        <v>0.001492730210016113</v>
       </c>
       <c r="G9" s="2">
         <f>1/(POWER(B9,1.5))</f>
@@ -9628,7 +9887,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="B10" s="3">
         <v>511</v>
@@ -9637,13 +9896,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.2602739726027397</v>
+        <v>0.4070450097847358</v>
       </c>
       <c r="E10" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F10" s="2">
-        <v>-0.01972602739726032</v>
+        <v>0.003045009784735764</v>
       </c>
       <c r="G10" s="2">
         <f>1/(POWER(B10,1.5))</f>
@@ -9671,7 +9930,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="B11" s="3">
         <v>392</v>
@@ -9680,13 +9939,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.2474489795918367</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="E11" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F11" s="2">
-        <v>-0.03255102040816329</v>
+        <v>-0.01624489795918371</v>
       </c>
       <c r="G11" s="2">
         <f>1/(POWER(B11,1.5))</f>
@@ -9714,7 +9973,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="B12" s="3">
         <v>252</v>
@@ -9723,13 +9982,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.257936507936508</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="E12" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F12" s="2">
-        <v>-0.02206349206349206</v>
+        <v>0.0007619047619047414</v>
       </c>
       <c r="G12" s="2">
         <f>1/(POWER(B12,1.5))</f>
@@ -9757,7 +10016,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="B13" s="3">
         <v>127</v>
@@ -9766,13 +10025,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.3228346456692913</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="E13" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F13" s="2">
-        <v>0.04283464566929129</v>
+        <v>0.03694488188976375</v>
       </c>
       <c r="G13" s="2">
         <f>1/(POWER(B13,1.5))</f>
@@ -9800,7 +10059,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="B14" s="3">
         <v>63</v>
@@ -9809,13 +10068,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>0.3650793650793651</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="E14" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F14" s="2">
-        <v>0.08507936507936503</v>
+        <v>0.1039365079365079</v>
       </c>
       <c r="G14" s="2">
         <f>1/(POWER(B14,1.5))</f>
@@ -9843,7 +10102,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="B15" s="3">
         <v>36</v>
@@ -9852,13 +10111,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>0.3611111111111111</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E15" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F15" s="2">
-        <v>0.08111111111111108</v>
+        <v>0.1515555555555556</v>
       </c>
       <c r="G15" s="2">
         <f>1/(POWER(B15,1.5))</f>
@@ -9886,7 +10145,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="B16" s="3">
         <v>22</v>
@@ -9895,13 +10154,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>0.3181818181818182</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="E16" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F16" s="2">
-        <v>0.03818181818181815</v>
+        <v>0.1869090909090909</v>
       </c>
       <c r="G16" s="2">
         <f>1/(POWER(B16,1.5))</f>
@@ -9929,7 +10188,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="B17" s="3">
         <v>14</v>
@@ -9938,13 +10197,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E17" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F17" s="2">
-        <v>0.1485714285714285</v>
+        <v>0.1674285714285714</v>
       </c>
       <c r="G17" s="2">
         <f>1/(POWER(B17,1.5))</f>
@@ -9972,7 +10231,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="B18" s="3">
         <v>6</v>
@@ -9984,10 +10243,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E18" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F18" s="2">
-        <v>0.3866666666666666</v>
+        <v>0.2626666666666666</v>
       </c>
       <c r="G18" s="2">
         <f>1/(POWER(B18,1.5))</f>
@@ -10015,7 +10274,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -10027,10 +10286,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F19" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G19" s="2">
         <f>1/(POWER(B19,1.5))</f>
@@ -10058,7 +10317,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -10070,10 +10329,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F20" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G20" s="2">
         <f>1/(POWER(B20,1.5))</f>
@@ -10101,7 +10360,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -10113,10 +10372,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F21" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G21" s="2">
         <f>1/(POWER(B21,1.5))</f>
@@ -10144,7 +10403,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -10156,10 +10415,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F22" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G22" s="2">
         <f>1/(POWER(B22,1.5))</f>
@@ -10187,7 +10446,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -10199,10 +10458,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F23" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G23" s="2">
         <f>1/(POWER(B23,1.5))</f>
@@ -10230,7 +10489,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -10242,10 +10501,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F24" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G24" s="2">
         <f>1/(POWER(B24,1.5))</f>
@@ -10273,7 +10532,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -10285,10 +10544,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F25" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G25" s="2">
         <f>1/(POWER(B25,1.5))</f>
@@ -10316,7 +10575,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -10328,10 +10587,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F26" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G26" s="2">
         <f>1/(POWER(B26,1.5))</f>
@@ -10359,7 +10618,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -10371,10 +10630,10 @@
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F27" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G27" s="2">
         <f>1/(POWER(B27,1.5))</f>
@@ -10402,7 +10661,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -10414,10 +10673,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F28" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G28" s="2">
         <f>1/(POWER(B28,1.5))</f>
@@ -10445,7 +10704,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -10457,10 +10716,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F29" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G29" s="2">
         <f>1/(POWER(B29,1.5))</f>
@@ -10488,7 +10747,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -10500,10 +10759,10 @@
         <v>1</v>
       </c>
       <c r="E30" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F30" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G30" s="2">
         <f>1/(POWER(B30,1.5))</f>
@@ -10548,7 +10807,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>294</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -10571,25 +10830,25 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -10611,7 +10870,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -10634,30 +10893,30 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>206</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="B4" s="3">
         <v>714</v>
@@ -10666,13 +10925,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2899159663865546</v>
+        <v>0.3977591036414566</v>
       </c>
       <c r="E4" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F4" s="2">
-        <v>0.00991596638655462</v>
+        <v>-0.006240896358543468</v>
       </c>
       <c r="G4" s="2">
         <f>1/(POWER(B4,1.5))</f>
@@ -10700,7 +10959,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="B5" s="3">
         <v>348</v>
@@ -10709,13 +10968,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.367816091954023</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="E5" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F5" s="2">
-        <v>0.08781609195402296</v>
+        <v>0.1304827586206896</v>
       </c>
       <c r="G5" s="2">
         <f>1/(POWER(B5,1.5))</f>
@@ -10743,7 +11002,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="B6" s="3">
         <v>153</v>
@@ -10752,13 +11011,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.4836601307189543</v>
+        <v>0.6143790849673203</v>
       </c>
       <c r="E6" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F6" s="2">
-        <v>0.2036601307189542</v>
+        <v>0.2103790849673203</v>
       </c>
       <c r="G6" s="2">
         <f>1/(POWER(B6,1.5))</f>
@@ -10786,7 +11045,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="B7" s="3">
         <v>90</v>
@@ -10795,13 +11054,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5222222222222223</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="E7" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F7" s="2">
-        <v>0.2422222222222222</v>
+        <v>0.2182222222222222</v>
       </c>
       <c r="G7" s="2">
         <f>1/(POWER(B7,1.5))</f>
@@ -10829,7 +11088,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="B8" s="3">
         <v>49</v>
@@ -10838,13 +11097,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.4897959183673469</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E8" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F8" s="2">
-        <v>0.2097959183673469</v>
+        <v>0.1674285714285714</v>
       </c>
       <c r="G8" s="2">
         <f>1/(POWER(B8,1.5))</f>
@@ -10872,7 +11131,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="B9" s="3">
         <v>28</v>
@@ -10884,10 +11143,10 @@
         <v>0.6071428571428571</v>
       </c>
       <c r="E9" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F9" s="2">
-        <v>0.3271428571428571</v>
+        <v>0.2031428571428571</v>
       </c>
       <c r="G9" s="2">
         <f>1/(POWER(B9,1.5))</f>
@@ -10915,7 +11174,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>185</v>
+        <v>262</v>
       </c>
       <c r="B10" s="3">
         <v>17</v>
@@ -10927,10 +11186,10 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="E10" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F10" s="2">
-        <v>0.3670588235294118</v>
+        <v>0.2430588235294118</v>
       </c>
       <c r="G10" s="2">
         <f>1/(POWER(B10,1.5))</f>
@@ -10958,7 +11217,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="B11" s="3">
         <v>13</v>
@@ -10967,13 +11226,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.7692307692307693</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E11" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F11" s="2">
-        <v>0.4892307692307692</v>
+        <v>0.4421538461538461</v>
       </c>
       <c r="G11" s="2">
         <f>1/(POWER(B11,1.5))</f>
@@ -11001,7 +11260,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="B12" s="3">
         <v>6</v>
@@ -11013,10 +11272,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F12" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G12" s="2">
         <f>1/(POWER(B12,1.5))</f>
@@ -11044,7 +11303,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
@@ -11056,10 +11315,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F13" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G13" s="2">
         <f>1/(POWER(B13,1.5))</f>
@@ -11087,7 +11346,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>191</v>
+        <v>270</v>
       </c>
       <c r="B14" s="3">
         <v>4</v>
@@ -11099,10 +11358,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F14" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G14" s="2">
         <f>1/(POWER(B14,1.5))</f>
@@ -11130,7 +11389,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
@@ -11142,10 +11401,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F15" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G15" s="2">
         <f>1/(POWER(B15,1.5))</f>
@@ -11173,7 +11432,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -11185,10 +11444,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F16" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G16" s="2">
         <f>1/(POWER(B16,1.5))</f>
@@ -11216,7 +11475,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -11228,10 +11487,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F17" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G17" s="2">
         <f>1/(POWER(B17,1.5))</f>
@@ -11259,7 +11518,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -11271,10 +11530,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F18" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G18" s="2">
         <f>1/(POWER(B18,1.5))</f>
@@ -11302,7 +11561,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -11314,10 +11573,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F19" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G19" s="2">
         <f>1/(POWER(B19,1.5))</f>
@@ -11345,7 +11604,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -11357,10 +11616,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>0.28</v>
+        <v>0.404</v>
       </c>
       <c r="F20" s="2">
-        <v>0.72</v>
+        <v>0.596</v>
       </c>
       <c r="G20" s="2">
         <f>1/(POWER(B20,1.5))</f>
@@ -11405,185 +11664,185 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>218</v>
+        <v>303</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D2" s="2">
-        <v>0.5534469689336915</v>
+        <v>0.8156604337170235</v>
       </c>
       <c r="E2" s="2">
-        <v>0.8974796146698523</v>
+        <v>0.9114676706260637</v>
       </c>
       <c r="F2" s="2">
-        <v>0.9471495086613666</v>
+        <v>0.9369053750403442</v>
       </c>
       <c r="G2" s="2">
-        <v>0.7180961200279119</v>
+        <v>0.865485017655889</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2">
-        <v>0.5633736531342299</v>
+        <v>0.8226766059010503</v>
       </c>
       <c r="E3" s="2">
-        <v>0.9204704473665675</v>
+        <v>0.9077639669223598</v>
       </c>
       <c r="F3" s="2">
-        <v>0.9581555956682347</v>
+        <v>0.9352546592845797</v>
       </c>
       <c r="G3" s="2">
-        <v>0.721710939286949</v>
+        <v>0.8717322086671249</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D4" s="2">
-        <v>0.6039521818469187</v>
+        <v>0.8295720788724715</v>
       </c>
       <c r="E4" s="2">
-        <v>0.5970370972373475</v>
+        <v>0.8779019472023396</v>
       </c>
       <c r="F4" s="2">
-        <v>0.8435953069332701</v>
+        <v>0.9151515596046835</v>
       </c>
       <c r="G4" s="2">
-        <v>0.8489340827960185</v>
+        <v>0.8824318486968477</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D5" s="2">
-        <v>0.6025316299881475</v>
+        <v>0.8253365708085992</v>
       </c>
       <c r="E5" s="2">
-        <v>0.5665809805546977</v>
+        <v>0.844823965041005</v>
       </c>
       <c r="F5" s="2">
-        <v>0.8358385877351393</v>
+        <v>0.8962392093371226</v>
       </c>
       <c r="G5" s="2">
-        <v>0.8556248406339568</v>
+        <v>0.8843643794313711</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5568475013829983</v>
+        <v>0.8221059298694436</v>
       </c>
       <c r="E6" s="2">
-        <v>0.2953877411699689</v>
+        <v>0.9044852783977697</v>
       </c>
       <c r="F6" s="2">
-        <v>0.7670552753659292</v>
+        <v>0.933244374104589</v>
       </c>
       <c r="G6" s="2">
-        <v>0.907424549604535</v>
+        <v>0.8717322086671249</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D7" s="2">
-        <v>0.6195371377134513</v>
+        <v>0.8221059298694436</v>
       </c>
       <c r="E7" s="2">
-        <v>0.6250363549675189</v>
+        <v>0.9044852783977697</v>
       </c>
       <c r="F7" s="2">
-        <v>0.8544874971322785</v>
+        <v>0.933244374104589</v>
       </c>
       <c r="G7" s="2">
-        <v>0.8495932198012056</v>
+        <v>0.8717322086671249</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>225</v>
+        <v>310</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D8" s="2">
-        <v>0.6195371377134513</v>
+        <v>0.7999288116806177</v>
       </c>
       <c r="E8" s="2">
-        <v>0.6250363549675189</v>
+        <v>0.8987968307721251</v>
       </c>
       <c r="F8" s="2">
-        <v>0.8544874971322785</v>
+        <v>0.9274130565820163</v>
       </c>
       <c r="G8" s="2">
-        <v>0.8495932198012056</v>
+        <v>0.8528055796463683</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>219</v>
+        <v>304</v>
       </c>
       <c r="D9" s="2">
-        <v>0.6125074356653305</v>
+        <v>0.8291930149986415</v>
       </c>
       <c r="E9" s="2">
-        <v>0.5515152327855707</v>
+        <v>0.9039192898740348</v>
       </c>
       <c r="F9" s="2">
-        <v>0.8315798542152354</v>
+        <v>0.9314753694229158</v>
       </c>
       <c r="G9" s="2">
-        <v>0.8665232298334468</v>
+        <v>0.8786386356676795</v>
       </c>
     </row>
   </sheetData>
